--- a/docs/PercentUtilization.xlsx
+++ b/docs/PercentUtilization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CDP2p0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C2F39B-1820-44F7-81BF-88CBF9193E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2683EA0F-4318-4288-8052-DE3404D5949E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" activeTab="4" xr2:uid="{E942DB52-27E8-4EBF-AAF5-B8727867F8F4}"/>
+    <workbookView minimized="1" xWindow="1680" yWindow="735" windowWidth="20895" windowHeight="11835" activeTab="3" xr2:uid="{E942DB52-27E8-4EBF-AAF5-B8727867F8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit A" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Unit E" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,19 +124,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Percent</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Percent Utilization (Unit A)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Utilization (Unit A)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -205,10 +199,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Unit A'!$A$1:$A$8</c:f>
+              <c:f>'Unit A'!$A$1:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>45019</c:v>
                 </c:pt>
@@ -232,16 +226,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>45075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Unit A'!$B$1:$B$8</c:f>
+              <c:f>'Unit A'!$B$1:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>98</c:v>
                 </c:pt>
@@ -265,6 +262,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -272,7 +272,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E3F6-4A4A-AB1F-749EE1966259}"/>
+              <c16:uniqueId val="{00000000-8B5F-424D-A70E-6835CE0A263A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -284,11 +284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1056503744"/>
-        <c:axId val="924936640"/>
+        <c:axId val="497171887"/>
+        <c:axId val="497171407"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1056503744"/>
+        <c:axId val="497171887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -345,12 +345,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="924936640"/>
+        <c:crossAx val="497171407"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="924936640"/>
+        <c:axId val="497171407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,7 +407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1056503744"/>
+        <c:crossAx val="497171887"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1226,14 +1226,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Percent Utilization</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Percent Utilization (Unit D)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (Unit D)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1301,10 +1301,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Unit D'!$A$1:$A$8</c:f>
+              <c:f>'Unit D'!$A$1:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>45019</c:v>
                 </c:pt>
@@ -1328,16 +1328,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>45075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Unit D'!$B$1:$B$8</c:f>
+              <c:f>'Unit D'!$B$1:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
@@ -1361,6 +1364,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,7 +1374,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E97-4E4C-9B61-E63B06423C28}"/>
+              <c16:uniqueId val="{00000000-8086-4000-8834-970A5F6CA339}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1380,11 +1386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1241934624"/>
-        <c:axId val="1241940864"/>
+        <c:axId val="319626559"/>
+        <c:axId val="675379999"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1241934624"/>
+        <c:axId val="319626559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,12 +1447,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241940864"/>
+        <c:crossAx val="675379999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1241940864"/>
+        <c:axId val="675379999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241934624"/>
+        <c:crossAx val="319626559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4692,23 +4698,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7DEFAE-2559-A144-D84D-308E4DF67CA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA29510F-776C-777D-5C83-572540C92606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4815,23 +4821,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD91DD35-4BE8-9267-1E4A-444034CA8176}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D455421E-1133-B823-E0A0-70D8EEDF0C64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5190,10 +5196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A53214-2974-4F79-888E-D16C1C6CF68C}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5263,6 +5269,14 @@
       </c>
       <c r="B8">
         <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45082</v>
+      </c>
+      <c r="B9">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5439,10 +5453,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205037F1-9D3E-4733-9F09-41B7FA79BC13}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5512,6 +5526,14 @@
       </c>
       <c r="B8">
         <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45082</v>
+      </c>
+      <c r="B9">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5524,7 +5546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B3874B-927A-4265-8F63-5E8F896C1B3C}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
